--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>成绩表</t>
   </si>
@@ -34,6 +34,9 @@
     <t>成绩</t>
   </si>
   <si>
+    <t>考试时间</t>
+  </si>
+  <si>
     <t>题号</t>
   </si>
   <si>
@@ -53,6 +56,18 @@
   </si>
   <si>
     <t>D选项率</t>
+  </si>
+  <si>
+    <t>高三一班</t>
+  </si>
+  <si>
+    <t>张小二</t>
+  </si>
+  <si>
+    <t>20181005</t>
+  </si>
+  <si>
+    <t>纪晓岚</t>
   </si>
 </sst>
 </file>
@@ -148,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -161,13 +176,7 @@
     <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,16 +478,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="2" width="7.109375"/>
     <col customWidth="1" max="4" min="2" style="2" width="7.109375"/>
+    <col customWidth="1" max="5" min="5" style="2" width="8.88671875"/>
     <col customWidth="1" max="14" min="7" style="2" width="8.88671875"/>
   </cols>
   <sheetData>
@@ -486,7 +496,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -503,35 +513,72 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:N1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
